--- a/ExcelFiles/April_Quotey_Silver_202104.xlsx
+++ b/ExcelFiles/April_Quotey_Silver_202104.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/345d1610474a9baa/Quotey McQuoteface/Rating and Covermatch/Rating 20020723/Contractors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{47DAF8EE-9A34-441C-A4B1-925E9DEACC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2A42989-6AE5-4F10-A6FD-EFC48C267B49}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{47DAF8EE-9A34-441C-A4B1-925E9DEACC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B30BE70-7775-4C8E-9D81-5805D14388F4}"/>
   <workbookProtection workbookPassword="93C0" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-4110" windowWidth="29040" windowHeight="15840" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4110" windowWidth="29040" windowHeight="15840" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -4269,7 +4269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4609,6 +4609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10035,7 +10041,7 @@
     <xf numFmtId="0" fontId="41" fillId="55" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="55" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="642">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11412,6 +11418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11454,27 +11466,66 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="57" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="57" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="56" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="56" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="57" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="56" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="56" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="57" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="66" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11490,45 +11541,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="57" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="57" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="56" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="56" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="57" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="56" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="56" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="57" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="19" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11595,14 +11607,40 @@
     <xf numFmtId="0" fontId="19" fillId="42" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="61" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="34" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4345">
     <cellStyle name="20 % - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -16808,8 +16846,8 @@
   </sheetPr>
   <dimension ref="A1:AT267"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -16898,23 +16936,23 @@
     </row>
     <row r="2" spans="1:37" s="20" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
-      <c r="B2" s="582" t="s">
+      <c r="B2" s="584" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584" t="s">
+      <c r="C2" s="585"/>
+      <c r="D2" s="586" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="585"/>
-      <c r="F2" s="585"/>
-      <c r="G2" s="585"/>
-      <c r="H2" s="585"/>
-      <c r="I2" s="585"/>
-      <c r="J2" s="585"/>
-      <c r="K2" s="585"/>
-      <c r="L2" s="585"/>
-      <c r="M2" s="585"/>
-      <c r="N2" s="585"/>
+      <c r="E2" s="587"/>
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="587"/>
+      <c r="K2" s="587"/>
+      <c r="L2" s="587"/>
+      <c r="M2" s="587"/>
+      <c r="N2" s="587"/>
       <c r="O2" s="18" t="s">
         <v>8</v>
       </c>
@@ -16931,21 +16969,21 @@
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="586" t="s">
+      <c r="AC2" s="588" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="587"/>
-      <c r="AE2" s="588" t="s">
+      <c r="AD2" s="589"/>
+      <c r="AE2" s="590" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="589"/>
-      <c r="AG2" s="590"/>
-      <c r="AH2" s="577" t="s">
+      <c r="AF2" s="591"/>
+      <c r="AG2" s="592"/>
+      <c r="AH2" s="579" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="578"/>
-      <c r="AJ2" s="578"/>
-      <c r="AK2" s="579"/>
+      <c r="AI2" s="580"/>
+      <c r="AJ2" s="580"/>
+      <c r="AK2" s="581"/>
     </row>
     <row r="4" spans="1:37">
       <c r="E4" s="23" t="s">
@@ -16988,15 +17026,15 @@
       <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="580" t="str">
+      <c r="I5" s="582" t="str">
         <f>IF($M$9&lt;&gt;"",$M$9,IF($M$10&lt;&gt;"",$M$10,IF($M$11&lt;&gt;"",$M$11,IF($M$12&lt;&gt;"",$M$12,IF($M$13&lt;&gt;"",$M$13,IF($M$14&lt;&gt;"",$M$14,IF($M$15&lt;&gt;"",$M$15,IF($M$16&lt;&gt;"",$M$16,IF($M$17&lt;&gt;"",$M$17,IF($M$18&lt;&gt;"",$M$18,IF($M$24&lt;&gt;"",$M$24,IF($M$25&lt;&gt;"",$M$25,IF($M$26&lt;&gt;"",$M$26,IF($M$27&lt;&gt;"",$M$27,IF($M$28&lt;&gt;"",$M$28,IF($M$29&lt;&gt;"",$M$29,IF($M$30&lt;&gt;"",$M$30,IF($M$31&lt;&gt;"",$M$31,IF($M$32&lt;&gt;"",$M$32,IF($M$33&lt;&gt;"",$M$33,IF($M$19&lt;&gt;"",$M$19,IF($M$20&lt;&gt;"",$M$20,IF($M$21&lt;&gt;"",$M$21,IF($M$22&lt;&gt;"",$M$22,IF($M$23&lt;&gt;"",$M$23,IF($M$38&lt;&gt;"",$M$38,IF($M$39&lt;&gt;"",$M$39,IF($M$40&lt;&gt;"",$M$40,IF($M$41&lt;&gt;"",$M$41,IF($M$42&lt;&gt;"",$M$42,IF($M$43&lt;&gt;"",$M$43,IF($M$44&lt;&gt;"",$M$44,IF($M$45&lt;&gt;"",$M$45,IF($M$46&lt;&gt;"",$M$46,IF($M$47&lt;&gt;"",$M$47,IF($M$48&lt;&gt;"",$M$48,IF($M$49&lt;&gt;"",$M$49,IF($M$50&lt;&gt;"",$M$50,IF($M$51&lt;&gt;"",$M$51,IF($M$52&lt;&gt;"",$M$52,IF($M$53&lt;&gt;"",$M$53,IF($M$54&lt;&gt;"",$M$54,IF($M$55&lt;&gt;"",$M$55,IF($M$56&lt;&gt;"",$M$56,IF($M$57&lt;&gt;"",$M$57,IF($M$58&lt;&gt;"",$M$58,IF($M$59&lt;&gt;"",$M$59,IF($M$60&lt;&gt;"",$M$60,IF($M$61&lt;&gt;"",$M$61,IF($M$62&lt;&gt;"",$M$62,IF($M$63&lt;&gt;"",$M$63,IF($M$64&lt;&gt;"",$M$64,IF($M$65&lt;&gt;"",$M$65,IF($M$66&lt;&gt;"",$M$66,IF($M$67&lt;&gt;"",$M$67,IF($M$68&lt;&gt;"",$M$68,IF($M$69&lt;&gt;"",$M$69,IF($M$70&lt;&gt;"",$M$70,IF($M$71&lt;&gt;"",$M$71,IF($M$72&lt;&gt;"",$M$72,IF($M$73&lt;&gt;"",$M$73,IF($M$74&lt;&gt;"",$M$74,IF($M$75&lt;&gt;"",$M$75,IF($M$76&lt;&gt;"",$M$76,""))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>Previous claims</v>
       </c>
-      <c r="J5" s="580"/>
-      <c r="K5" s="580"/>
-      <c r="L5" s="580"/>
-      <c r="M5" s="580"/>
-      <c r="N5" s="580"/>
+      <c r="J5" s="582"/>
+      <c r="K5" s="582"/>
+      <c r="L5" s="582"/>
+      <c r="M5" s="582"/>
+      <c r="N5" s="582"/>
       <c r="O5" s="35" t="s">
         <v>19</v>
       </c>
@@ -17054,15 +17092,15 @@
       <c r="H6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="580" t="e">
+      <c r="I6" s="582" t="e">
         <f>IF($N$9&lt;&gt;"",$N$9,IF($N$10&lt;&gt;"",$N$10,IF($N$11&lt;&gt;"",$N$11,IF($N$12&lt;&gt;"",$N$12,IF($N$13&lt;&gt;"",$N$13,IF($N$14&lt;&gt;"",$N$14,IF($N$15&lt;&gt;"",$N$15,IF($N$16&lt;&gt;"",$N$16,IF($N$17&lt;&gt;"",$N$17,IF($N$18&lt;&gt;"",$N$18,IF($N$24&lt;&gt;"",$N$24,IF($N$25&lt;&gt;"",$N$25,IF($N$26&lt;&gt;"",$N$26,IF($N$27&lt;&gt;"",$N$27,IF($N$28&lt;&gt;"",$N$28,IF($N$29&lt;&gt;"",$N$29,IF($N$30&lt;&gt;"",$N$30,IF($N$31&lt;&gt;"",$N$31,IF($N$32&lt;&gt;"",$N$32,IF($N$33&lt;&gt;"",$N$33,IF($N$19&lt;&gt;"",$N$19,IF($N$20&lt;&gt;"",$N$20,IF($N$21&lt;&gt;"",$N$21,IF($N$22&lt;&gt;"",$N$22,IF($N$23&lt;&gt;"",$N$23,IF($N$38&lt;&gt;"",$N$38,IF($N$39&lt;&gt;"",$N$39,IF($N$40&lt;&gt;"",$N$40,IF($N$41&lt;&gt;"",$N$41,IF($N$42&lt;&gt;"",$N$42,IF($N$43&lt;&gt;"",$N$43,IF($N$44&lt;&gt;"",$N$44,IF($N$45&lt;&gt;"",$N$45,IF($N$46&lt;&gt;"",$N$46,IF($N$47&lt;&gt;"",$N$47,IF($N$48&lt;&gt;"",$N$48,IF($N$49&lt;&gt;"",$N$49,IF($N$50&lt;&gt;"",$N$50,IF($N$51&lt;&gt;"",$N$51,IF($N$52&lt;&gt;"",$N$52,IF($N$53&lt;&gt;"",$N$53,IF($N$54&lt;&gt;"",$N$54,IF($N$55&lt;&gt;"",$N$55,IF($N$56&lt;&gt;"",$N$56,IF($N$57&lt;&gt;"",$N$57,IF($N$58&lt;&gt;"",$N$58,IF($N$59&lt;&gt;"",$N$59,IF($N$60&lt;&gt;"",$N$60,IF($N$61&lt;&gt;"",$N$61,IF($N$62&lt;&gt;"",$N$62,IF($N$63&lt;&gt;"",$N$63,IF($N$64&lt;&gt;"",$N$64,IF($N$65&lt;&gt;"",$N$65,IF($N$66&lt;&gt;"",$N$66,IF($N$67&lt;&gt;"",$N$67,IF($N$68&lt;&gt;"",$N$68,IF($N$69&lt;&gt;"",$N$69,IF($N$70&lt;&gt;"",$N$70,IF($N$71&lt;&gt;"",$N$71,IF($N$72&lt;&gt;"",$N$72,IF($N$73&lt;&gt;"",$N$73,IF($N$74&lt;&gt;"",$N$74,IF($N$75&lt;&gt;"",$N$75,IF($N$76&lt;&gt;"",$N$76,""))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="580"/>
-      <c r="K6" s="580"/>
-      <c r="L6" s="580"/>
-      <c r="M6" s="580"/>
-      <c r="N6" s="580"/>
+      <c r="J6" s="582"/>
+      <c r="K6" s="582"/>
+      <c r="L6" s="582"/>
+      <c r="M6" s="582"/>
+      <c r="N6" s="582"/>
       <c r="O6" s="22">
         <v>175200</v>
       </c>
@@ -17097,7 +17135,7 @@
       <c r="B7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="641"/>
       <c r="D7" s="29"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -17152,11 +17190,11 @@
       <c r="B8" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="581" t="s">
+      <c r="C8" s="641"/>
+      <c r="D8" s="583" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="581"/>
+      <c r="E8" s="583"/>
       <c r="F8" s="49" t="s">
         <v>42</v>
       </c>
@@ -17225,14 +17263,14 @@
       </c>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="638">
+      <c r="A9" s="577">
         <v>510</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="639">
+      <c r="C9" s="642"/>
+      <c r="D9" s="578">
         <v>1</v>
       </c>
       <c r="E9" s="552" t="s">
@@ -17309,13 +17347,13 @@
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="638">
+      <c r="A10" s="577">
         <v>513</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="641"/>
       <c r="D10" s="562">
         <v>2</v>
       </c>
@@ -17395,13 +17433,13 @@
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="638">
+      <c r="A11" s="577">
         <v>10508</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="641"/>
       <c r="D11" s="562">
         <v>3</v>
       </c>
@@ -17481,13 +17519,13 @@
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="638">
+      <c r="A12" s="577">
         <v>519</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="641"/>
       <c r="D12" s="562">
         <v>4</v>
       </c>
@@ -17568,13 +17606,13 @@
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="638">
+      <c r="A13" s="577">
         <v>523</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="643"/>
       <c r="D13" s="562">
         <v>5</v>
       </c>
@@ -17655,13 +17693,13 @@
       <c r="AK13" s="64"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="638">
+      <c r="A14" s="577">
         <v>650500</v>
       </c>
       <c r="B14" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="641"/>
       <c r="D14" s="45">
         <v>6</v>
       </c>
@@ -17741,13 +17779,13 @@
       </c>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="638">
+      <c r="A15" s="577">
         <v>527</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="644"/>
       <c r="D15" s="45">
         <v>7</v>
       </c>
@@ -17825,13 +17863,13 @@
       </c>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="638">
+      <c r="A16" s="577">
         <v>529</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>1107</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="644"/>
       <c r="D16" s="45">
         <v>8</v>
       </c>
@@ -17909,13 +17947,13 @@
       </c>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="638">
+      <c r="A17" s="577">
         <v>538</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>1108</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="644"/>
       <c r="D17" s="45">
         <v>9</v>
       </c>
@@ -18001,7 +18039,7 @@
       <c r="B18" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="645"/>
       <c r="D18" s="45">
         <v>10</v>
       </c>
@@ -18087,7 +18125,7 @@
       <c r="B19" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="641"/>
+      <c r="C19" s="646"/>
       <c r="D19" s="45">
         <v>11</v>
       </c>
@@ -18171,7 +18209,7 @@
       <c r="B20" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="641"/>
+      <c r="C20" s="647"/>
       <c r="D20" s="45">
         <v>12</v>
       </c>
@@ -18257,7 +18295,7 @@
       <c r="B21" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="641"/>
+      <c r="C21" s="648"/>
       <c r="D21" s="45">
         <v>13</v>
       </c>
@@ -18343,7 +18381,7 @@
       <c r="B22" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="641"/>
+      <c r="C22" s="648"/>
       <c r="D22" s="45">
         <v>14</v>
       </c>
@@ -18429,7 +18467,7 @@
       <c r="B23" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="641"/>
+      <c r="C23" s="648"/>
       <c r="D23" s="45">
         <v>15</v>
       </c>
@@ -18514,7 +18552,7 @@
       <c r="B24" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="641"/>
+      <c r="C24" s="644"/>
       <c r="D24" s="562">
         <v>11</v>
       </c>
@@ -18600,7 +18638,7 @@
       <c r="B25" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="644"/>
       <c r="D25" s="554">
         <v>12</v>
       </c>
@@ -18686,7 +18724,7 @@
       <c r="B26" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="66"/>
+      <c r="C26" s="551"/>
       <c r="D26" s="554">
         <v>13</v>
       </c>
@@ -18772,7 +18810,7 @@
       <c r="B27" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="648"/>
       <c r="D27" s="554">
         <v>14</v>
       </c>
@@ -18858,7 +18896,7 @@
       <c r="B28" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="648"/>
       <c r="D28" s="554">
         <v>15</v>
       </c>
@@ -18937,7 +18975,7 @@
       <c r="B29" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="648"/>
       <c r="D29" s="554">
         <v>16</v>
       </c>
@@ -19004,7 +19042,7 @@
       <c r="B30" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="66"/>
+      <c r="C30" s="648"/>
       <c r="D30" s="554">
         <v>17</v>
       </c>
@@ -19075,7 +19113,7 @@
       <c r="B31" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="C31" s="66"/>
+      <c r="C31" s="644"/>
       <c r="D31" s="554">
         <v>18</v>
       </c>
@@ -19150,7 +19188,7 @@
       <c r="B32" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="644"/>
       <c r="D32" s="554">
         <v>19</v>
       </c>
@@ -19237,7 +19275,7 @@
       <c r="B33" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="551"/>
       <c r="D33" s="554">
         <v>20</v>
       </c>
@@ -19318,7 +19356,7 @@
       <c r="B34" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="66"/>
+      <c r="C34" s="648"/>
       <c r="D34" s="57"/>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
@@ -19378,7 +19416,7 @@
       <c r="B35" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="648"/>
       <c r="D35" s="57"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
@@ -19438,7 +19476,7 @@
       <c r="B36" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="648"/>
       <c r="D36" s="563" t="s">
         <v>1067</v>
       </c>
@@ -19500,7 +19538,7 @@
       <c r="B37" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="648"/>
       <c r="D37" s="51"/>
       <c r="E37" s="550" t="s">
         <v>1068</v>
@@ -19580,7 +19618,7 @@
       <c r="B38" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="66"/>
+      <c r="C38" s="644"/>
       <c r="D38" s="57"/>
       <c r="E38" s="564">
         <v>175200</v>
@@ -19663,7 +19701,7 @@
       <c r="B39" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="644"/>
       <c r="D39" s="57"/>
       <c r="E39" s="564">
         <v>181200</v>
@@ -19749,7 +19787,7 @@
       <c r="B40" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="66"/>
+      <c r="C40" s="551"/>
       <c r="D40" s="57"/>
       <c r="E40" s="564">
         <v>176200</v>
@@ -19832,7 +19870,7 @@
       <c r="B41" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="66"/>
+      <c r="C41" s="648"/>
       <c r="D41" s="73"/>
       <c r="E41" s="564">
         <v>174100</v>
@@ -19918,7 +19956,7 @@
       <c r="B42" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C42" s="66"/>
+      <c r="C42" s="648"/>
       <c r="D42" s="73"/>
       <c r="E42" s="564">
         <v>175300</v>
@@ -20004,7 +20042,7 @@
       <c r="B43" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="66"/>
+      <c r="C43" s="648"/>
       <c r="D43" s="73"/>
       <c r="E43" s="564">
         <v>176200</v>
@@ -20087,7 +20125,7 @@
       <c r="B44" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="66"/>
+      <c r="C44" s="648"/>
       <c r="D44" s="73"/>
       <c r="E44" s="564">
         <v>174300</v>
@@ -20173,7 +20211,7 @@
       <c r="B45" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="644"/>
       <c r="D45" s="73"/>
       <c r="E45" s="564">
         <v>181200</v>
@@ -20259,7 +20297,7 @@
       <c r="B46" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C46" s="47"/>
+      <c r="C46" s="644"/>
       <c r="E46" s="564">
         <v>173200</v>
       </c>
@@ -20339,7 +20377,7 @@
       <c r="B47" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="551"/>
       <c r="E47" s="564">
         <v>181200</v>
       </c>
@@ -20419,7 +20457,7 @@
       <c r="B48" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="C48" s="66"/>
+      <c r="C48" s="648"/>
       <c r="E48" s="564">
         <v>739401</v>
       </c>
@@ -20499,7 +20537,7 @@
       <c r="B49" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="C49" s="66"/>
+      <c r="C49" s="648"/>
       <c r="E49" s="564">
         <v>739402</v>
       </c>
@@ -20567,7 +20605,7 @@
       <c r="B50" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="C50" s="66"/>
+      <c r="C50" s="648"/>
       <c r="E50" s="564">
         <v>152800</v>
       </c>
@@ -20635,7 +20673,7 @@
       <c r="B51" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="C51" s="66"/>
+      <c r="C51" s="648"/>
       <c r="E51" s="564">
         <v>73500</v>
       </c>
@@ -20701,7 +20739,7 @@
       <c r="B52" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="C52" s="66"/>
+      <c r="C52" s="644"/>
       <c r="E52" s="564">
         <v>152100</v>
       </c>
@@ -20767,7 +20805,7 @@
       <c r="B53" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="644"/>
       <c r="E53" s="564">
         <v>152800</v>
       </c>
@@ -20833,7 +20871,7 @@
       <c r="B54" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="C54" s="66"/>
+      <c r="C54" s="551"/>
       <c r="E54" s="564">
         <v>153500</v>
       </c>
@@ -20845,7 +20883,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="58">
-        <f>$C$121</f>
+        <f t="shared" ref="H54:H62" si="17">$C$121</f>
         <v>0</v>
       </c>
       <c r="I54" s="58">
@@ -20899,7 +20937,7 @@
       <c r="B55" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="C55" s="66"/>
+      <c r="C55" s="648"/>
       <c r="E55" s="564">
         <v>175200</v>
       </c>
@@ -20911,14 +20949,14 @@
         <v>0</v>
       </c>
       <c r="H55" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I55" s="58">
         <v>4</v>
       </c>
       <c r="J55" s="58">
-        <f t="shared" ref="J55:J62" si="17">IF(G55&lt;&gt;1,0,IF(H55&gt;I55,1,0))</f>
+        <f t="shared" ref="J55:J62" si="18">IF(G55&lt;&gt;1,0,IF(H55&gt;I55,1,0))</f>
         <v>0</v>
       </c>
       <c r="K55" s="58" t="s">
@@ -20965,7 +21003,7 @@
       <c r="B56" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="C56" s="66"/>
+      <c r="C56" s="648"/>
       <c r="E56" s="564">
         <v>175300</v>
       </c>
@@ -20977,14 +21015,14 @@
         <v>0</v>
       </c>
       <c r="H56" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I56" s="58">
         <v>4</v>
       </c>
       <c r="J56" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K56" s="58" t="s">
@@ -21031,7 +21069,7 @@
       <c r="B57" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="C57" s="66"/>
+      <c r="C57" s="648"/>
       <c r="E57" s="564">
         <v>174300</v>
       </c>
@@ -21043,14 +21081,14 @@
         <v>0</v>
       </c>
       <c r="H57" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I57" s="58">
         <v>4</v>
       </c>
       <c r="J57" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K57" s="58" t="s">
@@ -21097,7 +21135,7 @@
       <c r="B58" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="C58" s="66"/>
+      <c r="C58" s="648"/>
       <c r="E58" s="564">
         <v>176600</v>
       </c>
@@ -21109,14 +21147,14 @@
         <v>0</v>
       </c>
       <c r="H58" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I58" s="58">
         <v>4</v>
       </c>
       <c r="J58" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K58" s="58" t="s">
@@ -21163,7 +21201,7 @@
       <c r="B59" s="66" t="s">
         <v>344</v>
       </c>
-      <c r="C59" s="66"/>
+      <c r="C59" s="644"/>
       <c r="E59" s="564">
         <v>175500</v>
       </c>
@@ -21175,14 +21213,14 @@
         <v>0</v>
       </c>
       <c r="H59" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I59" s="58">
         <v>4</v>
       </c>
       <c r="J59" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K59" s="58" t="s">
@@ -21229,7 +21267,7 @@
       <c r="B60" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="C60" s="47"/>
+      <c r="C60" s="644"/>
       <c r="E60" s="564">
         <v>153200</v>
       </c>
@@ -21241,14 +21279,14 @@
         <v>0</v>
       </c>
       <c r="H60" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I60" s="58">
         <v>4</v>
       </c>
       <c r="J60" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K60" s="58" t="s">
@@ -21295,7 +21333,7 @@
       <c r="B61" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="C61" s="66"/>
+      <c r="C61" s="551"/>
       <c r="E61" s="564">
         <v>739200</v>
       </c>
@@ -21307,14 +21345,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I61" s="58">
         <v>4</v>
       </c>
       <c r="J61" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K61" s="58" t="s">
@@ -21361,7 +21399,7 @@
       <c r="B62" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="66"/>
+      <c r="C62" s="648"/>
       <c r="E62" s="564">
         <v>174400</v>
       </c>
@@ -21373,14 +21411,14 @@
         <v>0</v>
       </c>
       <c r="H62" s="58">
-        <f>$C$121</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I62" s="58">
         <v>5</v>
       </c>
       <c r="J62" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K62" s="58" t="s">
@@ -21427,7 +21465,7 @@
       <c r="B63" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="66"/>
+      <c r="C63" s="648"/>
       <c r="E63" s="564">
         <v>175400</v>
       </c>
@@ -21493,7 +21531,7 @@
       <c r="B64" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="C64" s="66"/>
+      <c r="C64" s="648"/>
       <c r="E64" s="564">
         <v>175500</v>
       </c>
@@ -21559,7 +21597,7 @@
       <c r="B65" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="C65" s="66"/>
+      <c r="C65" s="648"/>
       <c r="E65" s="564">
         <v>175500</v>
       </c>
@@ -21625,7 +21663,7 @@
       <c r="B66" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="C66" s="66"/>
+      <c r="C66" s="644"/>
       <c r="E66" s="564">
         <v>235300</v>
       </c>
@@ -21691,7 +21729,7 @@
       <c r="B67" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="C67" s="47"/>
+      <c r="C67" s="644"/>
       <c r="E67" s="564">
         <v>175400</v>
       </c>
@@ -21757,7 +21795,7 @@
       <c r="B68" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="C68" s="66"/>
+      <c r="C68" s="551"/>
       <c r="E68" s="564">
         <v>175500</v>
       </c>
@@ -21823,7 +21861,7 @@
       <c r="B69" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="66"/>
+      <c r="C69" s="648"/>
       <c r="E69" s="564">
         <v>73500</v>
       </c>
@@ -21889,7 +21927,7 @@
       <c r="B70" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="C70" s="66"/>
+      <c r="C70" s="648"/>
       <c r="E70" s="564">
         <v>73600</v>
       </c>
@@ -21955,7 +21993,7 @@
       <c r="B71" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="C71" s="66"/>
+      <c r="C71" s="648"/>
       <c r="E71" s="564"/>
       <c r="F71" s="564"/>
       <c r="G71" s="58"/>
@@ -22010,7 +22048,7 @@
       <c r="B72" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="C72" s="66"/>
+      <c r="C72" s="648"/>
       <c r="E72" s="564"/>
       <c r="F72" s="564"/>
       <c r="G72" s="564"/>
@@ -22065,7 +22103,7 @@
       <c r="B73" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="C73" s="66"/>
+      <c r="C73" s="644"/>
       <c r="E73" s="564"/>
       <c r="F73" s="564"/>
       <c r="G73" s="564"/>
@@ -22120,7 +22158,7 @@
       <c r="B74" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="C74" s="47"/>
+      <c r="C74" s="644"/>
       <c r="E74" s="564"/>
       <c r="F74" s="564"/>
       <c r="G74" s="564"/>
@@ -22193,7 +22231,7 @@
       <c r="B75" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="C75" s="80"/>
+      <c r="C75" s="551"/>
       <c r="E75" s="564"/>
       <c r="F75" s="564"/>
       <c r="G75" s="564"/>
@@ -22226,19 +22264,19 @@
         <v>0</v>
       </c>
       <c r="R75" s="82">
-        <f>C20</f>
+        <f>C20/100</f>
         <v>0</v>
       </c>
       <c r="S75" s="82">
-        <f>C21</f>
+        <f>C21/100</f>
         <v>0</v>
       </c>
       <c r="T75" s="82">
-        <f>C22</f>
+        <f>C22/100</f>
         <v>0</v>
       </c>
       <c r="U75" s="82">
-        <f>C23</f>
+        <f>C23/100</f>
         <v>0</v>
       </c>
       <c r="AE75" s="44" t="s">
@@ -22270,7 +22308,7 @@
       <c r="B76" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="C76" s="66"/>
+      <c r="C76" s="648"/>
       <c r="E76" s="564"/>
       <c r="F76" s="564"/>
       <c r="G76" s="564"/>
@@ -22303,19 +22341,19 @@
         <v>0</v>
       </c>
       <c r="R76" s="82">
-        <f>C27</f>
+        <f>C27/100</f>
         <v>0</v>
       </c>
       <c r="S76" s="82">
-        <f>C28</f>
+        <f>C28/100</f>
         <v>0</v>
       </c>
       <c r="T76" s="82">
-        <f>C29</f>
+        <f>C29/100</f>
         <v>0</v>
       </c>
       <c r="U76" s="82">
-        <f>C30</f>
+        <f>C30/100</f>
         <v>0</v>
       </c>
       <c r="AE76" s="44" t="str">
@@ -22348,7 +22386,7 @@
       <c r="B77" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="C77" s="66"/>
+      <c r="C77" s="648"/>
       <c r="E77" s="564"/>
       <c r="F77" s="564"/>
       <c r="G77" s="564"/>
@@ -22381,19 +22419,19 @@
         <v>0</v>
       </c>
       <c r="R77" s="82">
-        <f>C34</f>
+        <f>C34/100</f>
         <v>0</v>
       </c>
       <c r="S77" s="82">
-        <f>C35</f>
+        <f>C35/100</f>
         <v>0</v>
       </c>
       <c r="T77" s="82">
-        <f>C36</f>
+        <f>C36/100</f>
         <v>0</v>
       </c>
       <c r="U77" s="82">
-        <f>C37</f>
+        <f>C37/100</f>
         <v>0</v>
       </c>
       <c r="AE77" s="44"/>
@@ -22418,7 +22456,7 @@
       <c r="B78" s="66" t="s">
         <v>415</v>
       </c>
-      <c r="C78" s="66"/>
+      <c r="C78" s="648"/>
       <c r="E78" s="564"/>
       <c r="F78" s="564"/>
       <c r="G78" s="564"/>
@@ -22451,19 +22489,19 @@
         <v>0</v>
       </c>
       <c r="R78" s="82">
-        <f>C41</f>
+        <f>C41/100</f>
         <v>0</v>
       </c>
       <c r="S78" s="82">
-        <f>C42</f>
+        <f>C42/100</f>
         <v>0</v>
       </c>
       <c r="T78" s="82">
-        <f>C43</f>
+        <f>C43/100</f>
         <v>0</v>
       </c>
       <c r="U78" s="82">
-        <f>C44</f>
+        <f>C44/100</f>
         <v>0</v>
       </c>
       <c r="AE78" s="44" t="str">
@@ -22484,7 +22522,7 @@
         <v>362</v>
       </c>
       <c r="AJ78" s="40" t="str">
-        <f t="shared" ref="AJ78:AJ141" si="18">IFERROR(IF($AJ$7&lt;&gt;"Quote","",IF(VLOOKUP(AI78,$AF$7:$AG$240,2,FALSE)=0,"-",VLOOKUP(AI78,$AF$7:$AG$240,2,FALSE))),"-")</f>
+        <f t="shared" ref="AJ78:AJ141" si="19">IFERROR(IF($AJ$7&lt;&gt;"Quote","",IF(VLOOKUP(AI78,$AF$7:$AG$240,2,FALSE)=0,"-",VLOOKUP(AI78,$AF$7:$AG$240,2,FALSE))),"-")</f>
         <v/>
       </c>
       <c r="AT78" s="361"/>
@@ -22496,7 +22534,7 @@
       <c r="B79" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="C79" s="66"/>
+      <c r="C79" s="648"/>
       <c r="E79" s="564"/>
       <c r="F79" s="564"/>
       <c r="G79" s="564"/>
@@ -22529,19 +22567,19 @@
         <v>0</v>
       </c>
       <c r="R79" s="40">
-        <f>C48</f>
+        <f>C48/100</f>
         <v>0</v>
       </c>
       <c r="S79" s="82">
-        <f>C49</f>
+        <f>C49/100</f>
         <v>0</v>
       </c>
       <c r="T79" s="82">
-        <f>C50</f>
+        <f>C50/100</f>
         <v>0</v>
       </c>
       <c r="U79" s="82">
-        <f>C51</f>
+        <f>C51/100</f>
         <v>0</v>
       </c>
       <c r="AE79" s="44" t="str">
@@ -22562,7 +22600,7 @@
         <v>365</v>
       </c>
       <c r="AJ79" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT79" s="361"/>
@@ -22574,7 +22612,7 @@
       <c r="B80" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="C80" s="66"/>
+      <c r="C80" s="644"/>
       <c r="E80" s="564"/>
       <c r="F80" s="564"/>
       <c r="G80" s="564"/>
@@ -22607,19 +22645,19 @@
         <v>0</v>
       </c>
       <c r="R80" s="82">
-        <f>C55</f>
+        <f>C55/100</f>
         <v>0</v>
       </c>
       <c r="S80" s="82">
-        <f>C56</f>
+        <f>C56/100</f>
         <v>0</v>
       </c>
       <c r="T80" s="82">
-        <f>C57</f>
+        <f>C57/100</f>
         <v>0</v>
       </c>
       <c r="U80" s="82">
-        <f>C58</f>
+        <f>C58/100</f>
         <v>0</v>
       </c>
       <c r="AE80" s="44" t="str">
@@ -22640,7 +22678,7 @@
         <v>458</v>
       </c>
       <c r="AJ80" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT80" s="361"/>
@@ -22652,7 +22690,7 @@
       <c r="B81" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="C81" s="47"/>
+      <c r="C81" s="644"/>
       <c r="E81" s="564"/>
       <c r="F81" s="564"/>
       <c r="G81" s="564"/>
@@ -22685,19 +22723,19 @@
         <v>0</v>
       </c>
       <c r="R81" s="82">
-        <f>C62</f>
+        <f>C62/100</f>
         <v>0</v>
       </c>
       <c r="S81" s="82">
-        <f>C63</f>
+        <f>C63/100</f>
         <v>0</v>
       </c>
       <c r="T81" s="82">
-        <f>C64</f>
+        <f>C64/100</f>
         <v>0</v>
       </c>
       <c r="U81" s="82">
-        <f>C65</f>
+        <f>C65/100</f>
         <v>0</v>
       </c>
       <c r="AE81" s="44" t="str">
@@ -22718,7 +22756,7 @@
         <v>462</v>
       </c>
       <c r="AJ81" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT81" s="361"/>
@@ -22730,7 +22768,7 @@
       <c r="B82" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="C82" s="66"/>
+      <c r="C82" s="551"/>
       <c r="E82" s="564"/>
       <c r="F82" s="564"/>
       <c r="G82" s="564"/>
@@ -22763,19 +22801,19 @@
         <v>0</v>
       </c>
       <c r="R82" s="82">
-        <f>C69</f>
+        <f>C69/100</f>
         <v>0</v>
       </c>
       <c r="S82" s="82">
-        <f>C70</f>
+        <f>C70/100</f>
         <v>0</v>
       </c>
       <c r="T82" s="82">
-        <f>C71</f>
+        <f>C71/100</f>
         <v>0</v>
       </c>
       <c r="U82" s="82">
-        <f>C72</f>
+        <f>C72/100</f>
         <v>0</v>
       </c>
       <c r="AE82" s="44" t="str">
@@ -22796,7 +22834,7 @@
         <v>368</v>
       </c>
       <c r="AJ82" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT82" s="361"/>
@@ -22808,7 +22846,7 @@
       <c r="B83" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="C83" s="66"/>
+      <c r="C83" s="648"/>
       <c r="E83" s="564"/>
       <c r="F83" s="564"/>
       <c r="G83" s="564"/>
@@ -22841,19 +22879,19 @@
         <v>0</v>
       </c>
       <c r="R83" s="82">
-        <f>C76</f>
+        <f>C76/100</f>
         <v>0</v>
       </c>
       <c r="S83" s="82">
-        <f>C77</f>
+        <f>C77/100</f>
         <v>0</v>
       </c>
       <c r="T83" s="82">
-        <f>C78</f>
+        <f>C78/100</f>
         <v>0</v>
       </c>
       <c r="U83" s="82">
-        <f>C79</f>
+        <f>C79/100</f>
         <v>0</v>
       </c>
       <c r="AE83" s="44" t="s">
@@ -22873,7 +22911,7 @@
         <v>466</v>
       </c>
       <c r="AJ83" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT83" s="361"/>
@@ -22885,7 +22923,7 @@
       <c r="B84" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="C84" s="66"/>
+      <c r="C84" s="648"/>
       <c r="E84" s="564"/>
       <c r="F84" s="564"/>
       <c r="G84" s="564"/>
@@ -22918,19 +22956,19 @@
         <v>0</v>
       </c>
       <c r="R84" s="82">
-        <f>C83</f>
+        <f>C83/100</f>
         <v>0</v>
       </c>
       <c r="S84" s="82">
-        <f>C84</f>
+        <f>C84/100</f>
         <v>0</v>
       </c>
       <c r="T84" s="82">
-        <f>C85</f>
+        <f>C85/100</f>
         <v>0</v>
       </c>
       <c r="U84" s="82">
-        <f>C86</f>
+        <f>C86/100</f>
         <v>0</v>
       </c>
       <c r="AE84" s="44" t="s">
@@ -22945,7 +22983,7 @@
         <v>372</v>
       </c>
       <c r="AJ84" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT84" s="361"/>
@@ -22957,7 +22995,7 @@
       <c r="B85" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C85" s="66"/>
+      <c r="C85" s="648"/>
       <c r="E85" s="564"/>
       <c r="F85" s="564"/>
       <c r="G85" s="564"/>
@@ -23013,7 +23051,7 @@
         <v>377</v>
       </c>
       <c r="AJ85" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23024,7 +23062,7 @@
       <c r="B86" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="C86" s="66"/>
+      <c r="C86" s="648"/>
       <c r="AE86" s="573" t="str">
         <f>B91</f>
         <v>Contents Limit Required</v>
@@ -23041,7 +23079,7 @@
         <v>473</v>
       </c>
       <c r="AJ86" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23052,12 +23090,12 @@
       <c r="B87" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="C87" s="66"/>
+      <c r="C87" s="644"/>
       <c r="O87" s="81" t="s">
         <v>451</v>
       </c>
       <c r="AE87" s="573" t="str">
-        <f t="shared" ref="AE87:AE89" si="19">B92</f>
+        <f t="shared" ref="AE87:AE89" si="20">B92</f>
         <v>EDP systems limit</v>
       </c>
       <c r="AF87" s="574"/>
@@ -23072,7 +23110,7 @@
         <v>475</v>
       </c>
       <c r="AJ87" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23083,7 +23121,7 @@
       <c r="B88" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="C88" s="66"/>
+      <c r="C88" s="649"/>
       <c r="O88" s="88" t="s">
         <v>453</v>
       </c>
@@ -23103,7 +23141,7 @@
         <v>457</v>
       </c>
       <c r="AE88" s="573" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Stock limit</v>
       </c>
       <c r="AF88" s="574"/>
@@ -23118,18 +23156,18 @@
         <v>382</v>
       </c>
       <c r="AJ88" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:46">
-      <c r="A89" s="638">
+      <c r="A89" s="577">
         <v>1000130</v>
       </c>
       <c r="B89" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="C89" s="66"/>
+      <c r="C89" s="649"/>
       <c r="O89" s="22" t="s">
         <v>460</v>
       </c>
@@ -23151,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="AE89" s="573" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Business equipment limit</v>
       </c>
       <c r="AF89" s="574"/>
@@ -23166,18 +23204,18 @@
         <v>479</v>
       </c>
       <c r="AJ89" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:46">
-      <c r="A90" s="638">
+      <c r="A90" s="577">
         <v>1000140</v>
       </c>
       <c r="B90" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="C90" s="66"/>
+      <c r="C90" s="649"/>
       <c r="O90" s="22" t="s">
         <v>464</v>
       </c>
@@ -23208,7 +23246,7 @@
         <v>86</v>
       </c>
       <c r="AJ90" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23219,7 +23257,7 @@
       <c r="B91" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="C91" s="66"/>
+      <c r="C91" s="650"/>
       <c r="R91" s="28">
         <v>10000</v>
       </c>
@@ -23243,7 +23281,7 @@
         <v>385</v>
       </c>
       <c r="AJ91" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23254,7 +23292,7 @@
       <c r="B92" s="87" t="s">
         <v>463</v>
       </c>
-      <c r="C92" s="66"/>
+      <c r="C92" s="650"/>
       <c r="R92" s="28">
         <v>15000</v>
       </c>
@@ -23278,7 +23316,7 @@
         <v>389</v>
       </c>
       <c r="AJ92" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23289,7 +23327,7 @@
       <c r="B93" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="C93" s="66"/>
+      <c r="C93" s="650"/>
       <c r="R93" s="28">
         <v>25000</v>
       </c>
@@ -23312,7 +23350,7 @@
         <v>391</v>
       </c>
       <c r="AJ93" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23323,7 +23361,7 @@
       <c r="B94" s="87" t="s">
         <v>467</v>
       </c>
-      <c r="C94" s="66"/>
+      <c r="C94" s="650"/>
       <c r="R94" s="28">
         <v>35000</v>
       </c>
@@ -23346,18 +23384,18 @@
         <v>485</v>
       </c>
       <c r="AJ94" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:46">
-      <c r="A95" s="638">
+      <c r="A95" s="577">
         <v>1000160</v>
       </c>
       <c r="B95" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="C95" s="66"/>
+      <c r="C95" s="649"/>
       <c r="R95" s="28">
         <v>50000</v>
       </c>
@@ -23380,7 +23418,7 @@
         <v>488</v>
       </c>
       <c r="AJ95" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -23391,7 +23429,7 @@
       <c r="B96" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="C96" s="66"/>
+      <c r="C96" s="643"/>
       <c r="R96" s="28" t="s">
         <v>472</v>
       </c>
@@ -23414,18 +23452,18 @@
         <v>490</v>
       </c>
       <c r="AJ96" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:36">
-      <c r="A97" s="638">
+      <c r="A97" s="577">
         <v>1000100</v>
       </c>
       <c r="B97" s="87" t="s">
         <v>470</v>
       </c>
-      <c r="C97" s="66"/>
+      <c r="C97" s="651"/>
       <c r="R97" s="28"/>
       <c r="T97" s="28"/>
       <c r="AE97" s="407" t="str">
@@ -23441,18 +23479,18 @@
         <v>396</v>
       </c>
       <c r="AJ97" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="1:36">
-      <c r="A98" s="638" t="s">
+      <c r="A98" s="577" t="s">
         <v>1196</v>
       </c>
       <c r="B98" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="C98" s="66"/>
+      <c r="C98" s="649"/>
       <c r="R98" s="28"/>
       <c r="T98" s="28"/>
       <c r="AE98" s="407" t="str">
@@ -23468,18 +23506,18 @@
         <v>210</v>
       </c>
       <c r="AJ98" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:36">
-      <c r="A99" s="638">
+      <c r="A99" s="577">
         <v>1000360</v>
       </c>
       <c r="B99" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="C99" s="66"/>
+      <c r="C99" s="551"/>
       <c r="O99" s="81" t="s">
         <v>478</v>
       </c>
@@ -23498,18 +23536,18 @@
         <v>157</v>
       </c>
       <c r="AJ99" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:36">
-      <c r="A100" s="638">
+      <c r="A100" s="577">
         <v>1000190</v>
       </c>
       <c r="B100" s="87" t="s">
         <v>476</v>
       </c>
-      <c r="C100" s="66"/>
+      <c r="C100" s="649"/>
       <c r="O100" s="88" t="s">
         <v>453</v>
       </c>
@@ -23546,18 +23584,18 @@
         <v>493</v>
       </c>
       <c r="AJ100" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="1:36">
-      <c r="A101" s="638" t="s">
+      <c r="A101" s="577" t="s">
         <v>1197</v>
       </c>
       <c r="B101" s="87" t="s">
         <v>477</v>
       </c>
-      <c r="C101" s="66"/>
+      <c r="C101" s="649"/>
       <c r="O101" s="22" t="s">
         <v>481</v>
       </c>
@@ -23591,18 +23629,18 @@
         <v>494</v>
       </c>
       <c r="AJ101" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="638">
+      <c r="A102" s="577">
         <v>1000220</v>
       </c>
       <c r="B102" s="87" t="s">
         <v>480</v>
       </c>
-      <c r="C102" s="66"/>
+      <c r="C102" s="649"/>
       <c r="O102" s="22" t="s">
         <v>464</v>
       </c>
@@ -23636,18 +23674,18 @@
         <v>495</v>
       </c>
       <c r="AJ102" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:36">
-      <c r="A103" s="638">
+      <c r="A103" s="577">
         <v>1000210</v>
       </c>
       <c r="B103" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="C103" s="66"/>
+      <c r="C103" s="649"/>
       <c r="Q103" s="96"/>
       <c r="R103" s="28">
         <v>5000</v>
@@ -23672,18 +23710,18 @@
         <v>184</v>
       </c>
       <c r="AJ103" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:36">
-      <c r="A104" s="638" t="s">
+      <c r="A104" s="577" t="s">
         <v>1198</v>
       </c>
       <c r="B104" s="87" t="s">
         <v>483</v>
       </c>
-      <c r="C104" s="66"/>
+      <c r="C104" s="649"/>
       <c r="Q104" s="96"/>
       <c r="R104" s="28">
         <v>10000</v>
@@ -23708,18 +23746,18 @@
         <v>1110</v>
       </c>
       <c r="AJ104" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:36">
-      <c r="A105" s="638">
+      <c r="A105" s="577">
         <v>1000380</v>
       </c>
       <c r="B105" s="87" t="s">
         <v>484</v>
       </c>
-      <c r="C105" s="66"/>
+      <c r="C105" s="551"/>
       <c r="Q105" s="96"/>
       <c r="R105" s="28">
         <v>15000</v>
@@ -23744,18 +23782,18 @@
         <v>497</v>
       </c>
       <c r="AJ105" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:36">
-      <c r="A106" s="638">
+      <c r="A106" s="577">
         <v>1000180</v>
       </c>
       <c r="B106" s="87" t="s">
         <v>486</v>
       </c>
-      <c r="C106" s="66"/>
+      <c r="C106" s="649"/>
       <c r="Q106" s="96"/>
       <c r="R106" s="28">
         <v>20000</v>
@@ -23780,18 +23818,18 @@
         <v>499</v>
       </c>
       <c r="AJ106" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:36">
-      <c r="A107" s="638" t="s">
+      <c r="A107" s="577" t="s">
         <v>1199</v>
       </c>
       <c r="B107" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="C107" s="66"/>
+      <c r="C107" s="649"/>
       <c r="R107" s="28">
         <v>25000</v>
       </c>
@@ -23814,18 +23852,18 @@
         <v>400</v>
       </c>
       <c r="AJ107" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:36">
-      <c r="A108" s="638">
+      <c r="A108" s="577">
         <v>1000310</v>
       </c>
       <c r="B108" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="C108" s="66"/>
+      <c r="C108" s="649"/>
       <c r="R108" s="28">
         <v>35000</v>
       </c>
@@ -23848,18 +23886,18 @@
         <v>402</v>
       </c>
       <c r="AJ108" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:36">
-      <c r="A109" s="638" t="s">
+      <c r="A109" s="577" t="s">
         <v>1200</v>
       </c>
       <c r="B109" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="C109" s="66"/>
+      <c r="C109" s="649"/>
       <c r="R109" s="28">
         <v>50000</v>
       </c>
@@ -23882,18 +23920,18 @@
         <v>410</v>
       </c>
       <c r="AJ109" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:36">
-      <c r="A110" s="638">
+      <c r="A110" s="577">
         <v>1000300</v>
       </c>
       <c r="B110" s="87" t="s">
         <v>492</v>
       </c>
-      <c r="C110" s="66"/>
+      <c r="C110" s="551"/>
       <c r="R110" s="28">
         <v>100000</v>
       </c>
@@ -23916,18 +23954,18 @@
         <v>174</v>
       </c>
       <c r="AJ110" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:36">
-      <c r="A111" s="638">
+      <c r="A111" s="577">
         <v>10001</v>
       </c>
       <c r="B111" s="66" t="s">
         <v>1090</v>
       </c>
-      <c r="C111" s="47"/>
+      <c r="C111" s="551"/>
       <c r="R111" s="28" t="s">
         <v>472</v>
       </c>
@@ -23950,18 +23988,18 @@
         <v>500</v>
       </c>
       <c r="AJ111" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:36">
-      <c r="A112" s="638">
+      <c r="A112" s="577">
         <v>11001</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>1091</v>
       </c>
-      <c r="C112" s="47"/>
+      <c r="C112" s="551"/>
       <c r="R112" s="28"/>
       <c r="T112" s="28"/>
       <c r="AE112" s="407" t="str">
@@ -23977,18 +24015,18 @@
         <v>193</v>
       </c>
       <c r="AJ112" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:36">
-      <c r="A113" s="638">
+      <c r="A113" s="577">
         <v>11045</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>1092</v>
       </c>
-      <c r="C113" s="47"/>
+      <c r="C113" s="551"/>
       <c r="R113" s="28"/>
       <c r="T113" s="28"/>
       <c r="AE113" s="406"/>
@@ -24001,18 +24039,18 @@
         <v>414</v>
       </c>
       <c r="AJ113" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:36">
-      <c r="A114" s="638">
+      <c r="A114" s="577">
         <v>14500</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>1093</v>
       </c>
-      <c r="C114" s="47"/>
+      <c r="C114" s="551"/>
       <c r="O114" s="81" t="s">
         <v>496</v>
       </c>
@@ -24028,18 +24066,18 @@
         <v>1111</v>
       </c>
       <c r="AJ114" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:36">
-      <c r="A115" s="638">
+      <c r="A115" s="577">
         <v>13720</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>1094</v>
       </c>
-      <c r="C115" s="47"/>
+      <c r="C115" s="551"/>
       <c r="O115" s="88" t="s">
         <v>453</v>
       </c>
@@ -24068,18 +24106,18 @@
         <v>502</v>
       </c>
       <c r="AJ115" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:36">
-      <c r="A116" s="638">
+      <c r="A116" s="577">
         <v>12720</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>1095</v>
       </c>
-      <c r="C116" s="47"/>
+      <c r="C116" s="551"/>
       <c r="O116" s="22" t="s">
         <v>121</v>
       </c>
@@ -24107,18 +24145,18 @@
         <v>504</v>
       </c>
       <c r="AJ116" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:36">
-      <c r="A117" s="638">
+      <c r="A117" s="577">
         <v>11920</v>
       </c>
       <c r="B117" s="47" t="s">
         <v>1096</v>
       </c>
-      <c r="C117" s="47"/>
+      <c r="C117" s="551"/>
       <c r="O117" s="22" t="s">
         <v>464</v>
       </c>
@@ -24149,18 +24187,18 @@
         <v>202</v>
       </c>
       <c r="AJ117" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:36">
-      <c r="A118" s="638">
+      <c r="A118" s="577">
         <v>12800</v>
       </c>
       <c r="B118" s="47" t="s">
         <v>1097</v>
       </c>
-      <c r="C118" s="47"/>
+      <c r="C118" s="551"/>
       <c r="R118" s="28">
         <v>5000</v>
       </c>
@@ -24180,18 +24218,18 @@
         <v>417</v>
       </c>
       <c r="AJ118" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:36">
-      <c r="A119" s="638">
+      <c r="A119" s="577">
         <v>13320</v>
       </c>
       <c r="B119" s="47" t="s">
         <v>1098</v>
       </c>
-      <c r="C119" s="47"/>
+      <c r="C119" s="551"/>
       <c r="R119" s="28">
         <v>10000</v>
       </c>
@@ -24211,18 +24249,18 @@
         <v>420</v>
       </c>
       <c r="AJ119" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:36">
-      <c r="A120" s="638">
+      <c r="A120" s="577">
         <v>14550</v>
       </c>
       <c r="B120" s="47" t="s">
         <v>1099</v>
       </c>
-      <c r="C120" s="47"/>
+      <c r="C120" s="551"/>
       <c r="R120" s="28">
         <v>25000</v>
       </c>
@@ -24242,18 +24280,18 @@
         <v>423</v>
       </c>
       <c r="AJ120" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:36">
-      <c r="A121" s="638">
+      <c r="A121" s="577">
         <v>13000</v>
       </c>
       <c r="B121" s="47" t="s">
         <v>1100</v>
       </c>
-      <c r="C121" s="47"/>
+      <c r="C121" s="551"/>
       <c r="R121" s="28">
         <v>50000</v>
       </c>
@@ -24273,18 +24311,18 @@
         <v>428</v>
       </c>
       <c r="AJ121" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:36">
-      <c r="A122" s="638">
+      <c r="A122" s="577">
         <v>11710</v>
       </c>
       <c r="B122" s="47" t="s">
         <v>1101</v>
       </c>
-      <c r="C122" s="47"/>
+      <c r="C122" s="551"/>
       <c r="R122" s="28" t="s">
         <v>472</v>
       </c>
@@ -24304,18 +24342,18 @@
         <v>431</v>
       </c>
       <c r="AJ122" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:36">
-      <c r="A123" s="638">
+      <c r="A123" s="577">
         <v>11705</v>
       </c>
       <c r="B123" s="47" t="s">
         <v>1102</v>
       </c>
-      <c r="C123" s="47"/>
+      <c r="C123" s="551"/>
       <c r="R123" s="28"/>
       <c r="T123" s="28"/>
       <c r="AE123" s="44"/>
@@ -24328,12 +24366,12 @@
         <v>434</v>
       </c>
       <c r="AJ123" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:36">
-      <c r="A124" s="638">
+      <c r="A124" s="577">
         <v>11715</v>
       </c>
       <c r="B124" s="47" t="s">
@@ -24355,12 +24393,12 @@
         <v>1037</v>
       </c>
       <c r="AJ124" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:36">
-      <c r="A125" s="638">
+      <c r="A125" s="577">
         <v>14580</v>
       </c>
       <c r="B125" s="47" t="s">
@@ -24395,12 +24433,12 @@
         <v>438</v>
       </c>
       <c r="AJ125" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:36">
-      <c r="A126" s="638">
+      <c r="A126" s="577">
         <v>13900</v>
       </c>
       <c r="B126" s="47" t="s">
@@ -24437,12 +24475,12 @@
         <v>165</v>
       </c>
       <c r="AJ126" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:36">
-      <c r="A127" s="638">
+      <c r="A127" s="577">
         <v>13910</v>
       </c>
       <c r="B127" s="74" t="s">
@@ -24479,7 +24517,7 @@
         <v>508</v>
       </c>
       <c r="AJ127" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24511,7 +24549,7 @@
         <v>509</v>
       </c>
       <c r="AJ128" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24543,7 +24581,7 @@
         <v>1112</v>
       </c>
       <c r="AJ129" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24574,7 +24612,7 @@
         <v>510</v>
       </c>
       <c r="AJ130" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24605,7 +24643,7 @@
         <v>511</v>
       </c>
       <c r="AJ131" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24629,7 +24667,7 @@
         <v>442</v>
       </c>
       <c r="AJ132" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24653,7 +24691,7 @@
         <v>512</v>
       </c>
       <c r="AJ133" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24677,7 +24715,7 @@
         <v>513</v>
       </c>
       <c r="AJ134" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24694,7 +24732,7 @@
         <v>514</v>
       </c>
       <c r="AJ135" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24714,7 +24752,7 @@
         <v>515</v>
       </c>
       <c r="AJ136" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24747,7 +24785,7 @@
         <v>517</v>
       </c>
       <c r="AJ137" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24782,7 +24820,7 @@
         <v>518</v>
       </c>
       <c r="AJ138" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24817,7 +24855,7 @@
         <v>520</v>
       </c>
       <c r="AJ139" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24841,7 +24879,7 @@
         <v>522</v>
       </c>
       <c r="AJ140" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24865,7 +24903,7 @@
         <v>524</v>
       </c>
       <c r="AJ141" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -24889,7 +24927,7 @@
         <v>526</v>
       </c>
       <c r="AJ142" s="40" t="str">
-        <f t="shared" ref="AJ142:AJ201" si="20">IFERROR(IF($AJ$7&lt;&gt;"Quote","",IF(VLOOKUP(AI142,$AF$7:$AG$240,2,FALSE)=0,"-",VLOOKUP(AI142,$AF$7:$AG$240,2,FALSE))),"-")</f>
+        <f t="shared" ref="AJ142:AJ201" si="21">IFERROR(IF($AJ$7&lt;&gt;"Quote","",IF(VLOOKUP(AI142,$AF$7:$AG$240,2,FALSE)=0,"-",VLOOKUP(AI142,$AF$7:$AG$240,2,FALSE))),"-")</f>
         <v/>
       </c>
       <c r="AK142" s="31" t="s">
@@ -24916,7 +24954,7 @@
         <v>527</v>
       </c>
       <c r="AJ143" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -24940,7 +24978,7 @@
         <v>528</v>
       </c>
       <c r="AJ144" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -24957,7 +24995,7 @@
         <v>529</v>
       </c>
       <c r="AJ145" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -24974,7 +25012,7 @@
         <v>530</v>
       </c>
       <c r="AJ146" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -24994,7 +25032,7 @@
         <v>531</v>
       </c>
       <c r="AJ147" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25027,7 +25065,7 @@
         <v>532</v>
       </c>
       <c r="AJ148" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25062,7 +25100,7 @@
         <v>534</v>
       </c>
       <c r="AJ149" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25091,7 +25129,7 @@
         <v>535</v>
       </c>
       <c r="AJ150" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25115,7 +25153,7 @@
         <v>537</v>
       </c>
       <c r="AJ151" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25139,7 +25177,7 @@
         <v>539</v>
       </c>
       <c r="AJ152" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25161,7 +25199,7 @@
         <v>541</v>
       </c>
       <c r="AJ153" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25183,7 +25221,7 @@
         <v>542</v>
       </c>
       <c r="AJ154" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25200,7 +25238,7 @@
         <v>1038</v>
       </c>
       <c r="AJ155" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25217,7 +25255,7 @@
         <v>1039</v>
       </c>
       <c r="AJ156" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25234,7 +25272,7 @@
         <v>1040</v>
       </c>
       <c r="AJ157" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25251,7 +25289,7 @@
         <v>1041</v>
       </c>
       <c r="AJ158" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25271,7 +25309,7 @@
         <v>1042</v>
       </c>
       <c r="AJ159" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25304,7 +25342,7 @@
         <v>1043</v>
       </c>
       <c r="AJ160" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25339,7 +25377,7 @@
         <v>1044</v>
       </c>
       <c r="AJ161" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25374,7 +25412,7 @@
         <v>1045</v>
       </c>
       <c r="AJ162" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25405,7 +25443,7 @@
         <v>1046</v>
       </c>
       <c r="AJ163" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25436,7 +25474,7 @@
         <v>1047</v>
       </c>
       <c r="AJ164" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25460,7 +25498,7 @@
         <v>1048</v>
       </c>
       <c r="AJ165" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25484,7 +25522,7 @@
         <v>1049</v>
       </c>
       <c r="AJ166" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25508,7 +25546,7 @@
         <v>1050</v>
       </c>
       <c r="AJ167" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25532,7 +25570,7 @@
         <v>1051</v>
       </c>
       <c r="AJ168" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25552,7 +25590,7 @@
         <v>1052</v>
       </c>
       <c r="AJ169" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25585,7 +25623,7 @@
         <v>1053</v>
       </c>
       <c r="AJ170" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25619,7 +25657,7 @@
         <v>1054</v>
       </c>
       <c r="AJ171" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25654,7 +25692,7 @@
         <v>1055</v>
       </c>
       <c r="AJ172" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25678,7 +25716,7 @@
         <v>1056</v>
       </c>
       <c r="AJ173" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25702,7 +25740,7 @@
         <v>1057</v>
       </c>
       <c r="AJ174" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25726,7 +25764,7 @@
         <v>1058</v>
       </c>
       <c r="AJ175" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25750,7 +25788,7 @@
         <v>1059</v>
       </c>
       <c r="AJ176" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25767,7 +25805,7 @@
         <v>545</v>
       </c>
       <c r="AJ177" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25784,7 +25822,7 @@
         <v>1060</v>
       </c>
       <c r="AJ178" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25798,7 +25836,7 @@
         <v>1061</v>
       </c>
       <c r="AJ179" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25815,7 +25853,7 @@
         <v>1062</v>
       </c>
       <c r="AJ180" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25845,7 +25883,7 @@
         <v>1063</v>
       </c>
       <c r="AJ181" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25877,7 +25915,7 @@
         <v>1064</v>
       </c>
       <c r="AJ182" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25909,7 +25947,7 @@
         <v>1065</v>
       </c>
       <c r="AJ183" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25937,7 +25975,7 @@
         <v>1066</v>
       </c>
       <c r="AJ184" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25959,7 +25997,7 @@
         <v>546</v>
       </c>
       <c r="AJ185" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -25987,7 +26025,7 @@
         <v>547</v>
       </c>
       <c r="AJ186" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26008,7 +26046,7 @@
         <v>549</v>
       </c>
       <c r="AJ187" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26029,7 +26067,7 @@
         <v>550</v>
       </c>
       <c r="AJ188" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26050,7 +26088,7 @@
         <v>552</v>
       </c>
       <c r="AJ189" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26071,7 +26109,7 @@
         <v>554</v>
       </c>
       <c r="AJ190" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26092,7 +26130,7 @@
         <v>556</v>
       </c>
       <c r="AJ191" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26113,7 +26151,7 @@
         <v>557</v>
       </c>
       <c r="AJ192" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26134,7 +26172,7 @@
         <v>1113</v>
       </c>
       <c r="AJ193" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26148,7 +26186,7 @@
         <v>1114</v>
       </c>
       <c r="AJ194" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26162,7 +26200,7 @@
         <v>1115</v>
       </c>
       <c r="AJ195" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26176,7 +26214,7 @@
         <v>1116</v>
       </c>
       <c r="AJ196" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26193,7 +26231,7 @@
         <v>1117</v>
       </c>
       <c r="AJ197" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26223,7 +26261,7 @@
         <v>1118</v>
       </c>
       <c r="AJ198" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26255,7 +26293,7 @@
         <v>1119</v>
       </c>
       <c r="AJ199" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26284,7 +26322,7 @@
         <v>1120</v>
       </c>
       <c r="AJ200" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -26312,7 +26350,7 @@
         <v>1121</v>
       </c>
       <c r="AJ201" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -27144,8 +27182,8 @@
   </sheetPr>
   <dimension ref="A2:AC91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -27177,26 +27215,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="30">
-      <c r="C2" s="606" t="s">
+      <c r="C2" s="598" t="s">
         <v>944</v>
       </c>
-      <c r="D2" s="607"/>
+      <c r="D2" s="599"/>
       <c r="E2" s="316" t="s">
         <v>945</v>
       </c>
-      <c r="F2" s="613" t="s">
+      <c r="F2" s="606" t="s">
         <v>976</v>
       </c>
-      <c r="G2" s="614"/>
+      <c r="G2" s="607"/>
       <c r="H2" s="344" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="592" t="s">
+      <c r="C3" s="596" t="s">
         <v>975</v>
       </c>
-      <c r="D3" s="593"/>
+      <c r="D3" s="597"/>
       <c r="E3" s="343" t="e">
         <f>Inputs!AD10</f>
         <v>#N/A</v>
@@ -27224,10 +27262,10 @@
       </c>
     </row>
     <row r="5" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C5" s="592" t="s">
+      <c r="C5" s="596" t="s">
         <v>956</v>
       </c>
-      <c r="D5" s="593"/>
+      <c r="D5" s="597"/>
       <c r="E5" s="351" t="e">
         <f>VLOOKUP(E3,'Conditions (june 2020)'!B:AK,36,FALSE)</f>
         <v>#N/A</v>
@@ -27237,10 +27275,10 @@
       <c r="H5" s="332"/>
     </row>
     <row r="6" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C6" s="592" t="s">
+      <c r="C6" s="596" t="s">
         <v>762</v>
       </c>
-      <c r="D6" s="593"/>
+      <c r="D6" s="597"/>
       <c r="E6" s="351" t="e">
         <f>VLOOKUP(E3,'Conditions (june 2020)'!B:AK,35,FALSE)</f>
         <v>#N/A</v>
@@ -27250,10 +27288,10 @@
       <c r="H6" s="332"/>
     </row>
     <row r="7" spans="3:8" hidden="1" outlineLevel="1">
-      <c r="C7" s="592" t="s">
+      <c r="C7" s="596" t="s">
         <v>967</v>
       </c>
-      <c r="D7" s="593"/>
+      <c r="D7" s="597"/>
       <c r="E7" s="351" t="e">
         <f>VLOOKUP(E3,'Conditions (june 2020)'!B:AK,34,FALSE)</f>
         <v>#N/A</v>
@@ -27263,73 +27301,73 @@
       <c r="H7" s="332"/>
     </row>
     <row r="8" spans="3:8" s="175" customFormat="1" collapsed="1">
-      <c r="C8" s="608" t="s">
+      <c r="C8" s="600" t="s">
         <v>923</v>
       </c>
-      <c r="D8" s="609"/>
+      <c r="D8" s="601"/>
       <c r="E8" s="277" t="str">
         <f>Inputs!H28</f>
         <v/>
       </c>
-      <c r="F8" s="610">
+      <c r="F8" s="602">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G8" s="595"/>
+      <c r="G8" s="603"/>
       <c r="H8" s="332">
         <f>IF(E8&gt;0,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="596"/>
-      <c r="D9" s="597"/>
+      <c r="C9" s="612"/>
+      <c r="D9" s="609"/>
       <c r="E9" s="278"/>
       <c r="F9" s="279"/>
       <c r="G9" s="280"/>
       <c r="H9" s="332"/>
     </row>
     <row r="10" spans="3:8" ht="16.5" customHeight="1">
-      <c r="C10" s="611" t="s">
+      <c r="C10" s="604" t="s">
         <v>1005</v>
       </c>
-      <c r="D10" s="612"/>
+      <c r="D10" s="605"/>
       <c r="E10" s="277">
         <f>Inputs!H11</f>
         <v>0</v>
       </c>
-      <c r="F10" s="615">
-        <v>0</v>
-      </c>
-      <c r="G10" s="597"/>
+      <c r="F10" s="608">
+        <v>0</v>
+      </c>
+      <c r="G10" s="609"/>
       <c r="H10" s="332">
         <f>IF(E10&gt;F10,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="592" t="s">
+      <c r="C11" s="596" t="s">
         <v>924</v>
       </c>
-      <c r="D11" s="593"/>
+      <c r="D11" s="597"/>
       <c r="E11" s="524">
         <f>Inputs!H12</f>
         <v>0</v>
       </c>
-      <c r="F11" s="598">
+      <c r="F11" s="613">
         <f>IFERROR(VLOOKUP(E3,'Conditions (june 2020)'!B:H,7,FALSE)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="599"/>
+      <c r="G11" s="614"/>
       <c r="H11" s="332">
         <f>IF(E11&gt;F11,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="592" t="s">
+      <c r="C12" s="596" t="s">
         <v>925</v>
       </c>
-      <c r="D12" s="593"/>
+      <c r="D12" s="597"/>
       <c r="E12" s="281">
         <f ca="1">YEAR(TODAY())-Inputs!C11</f>
         <v>2021</v>
@@ -27339,64 +27377,64 @@
       <c r="H12" s="332"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="592" t="s">
+      <c r="C13" s="596" t="s">
         <v>926</v>
       </c>
-      <c r="D13" s="593"/>
+      <c r="D13" s="597"/>
       <c r="E13" s="281">
         <f>Inputs!H25</f>
         <v>0</v>
       </c>
-      <c r="F13" s="594">
+      <c r="F13" s="611">
         <v>3</v>
       </c>
-      <c r="G13" s="595"/>
+      <c r="G13" s="603"/>
       <c r="H13" s="332">
         <f>IF(E13&gt;=F13,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="592" t="s">
+      <c r="C14" s="596" t="s">
         <v>1007</v>
       </c>
-      <c r="D14" s="593"/>
+      <c r="D14" s="597"/>
       <c r="E14" s="281">
         <f>Inputs!H9</f>
         <v>0</v>
       </c>
-      <c r="F14" s="600" t="s">
+      <c r="F14" s="615" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="597"/>
+      <c r="G14" s="609"/>
       <c r="H14" s="332">
         <f>IF(E14=F14,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="592" t="s">
+      <c r="C15" s="596" t="s">
         <v>927</v>
       </c>
-      <c r="D15" s="593"/>
+      <c r="D15" s="597"/>
       <c r="E15" s="281" t="str">
         <f>Inputs!H26</f>
         <v>Yes</v>
       </c>
-      <c r="F15" s="600" t="s">
+      <c r="F15" s="615" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="597"/>
+      <c r="G15" s="609"/>
       <c r="H15" s="332">
         <f>IF(E15=F15,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="592" t="s">
+      <c r="C16" s="596" t="s">
         <v>1006</v>
       </c>
-      <c r="D16" s="593"/>
+      <c r="D16" s="597"/>
       <c r="E16" s="347"/>
       <c r="F16" s="350">
         <v>0.1</v>
@@ -27405,18 +27443,18 @@
       <c r="H16" s="332"/>
     </row>
     <row r="17" spans="3:27">
-      <c r="C17" s="601" t="s">
+      <c r="C17" s="616" t="s">
         <v>928</v>
       </c>
-      <c r="D17" s="602"/>
+      <c r="D17" s="617"/>
       <c r="E17" s="284">
         <f>Inputs!AD19</f>
         <v>0</v>
       </c>
-      <c r="F17" s="603">
+      <c r="F17" s="593">
         <v>2000000</v>
       </c>
-      <c r="G17" s="604"/>
+      <c r="G17" s="594"/>
       <c r="H17" s="332">
         <f>IF(E17&lt;=F17,0,1)</f>
         <v>0</v>
@@ -27500,13 +27538,13 @@
       </c>
     </row>
     <row r="23" spans="3:27" ht="20.399999999999999">
-      <c r="C23" s="605" t="s">
+      <c r="C23" s="595" t="s">
         <v>930</v>
       </c>
-      <c r="D23" s="605"/>
-      <c r="E23" s="605"/>
-      <c r="F23" s="605"/>
-      <c r="G23" s="605"/>
+      <c r="D23" s="595"/>
+      <c r="E23" s="595"/>
+      <c r="F23" s="595"/>
+      <c r="G23" s="595"/>
       <c r="H23" s="330"/>
     </row>
     <row r="24" spans="3:27" ht="16.8">
@@ -28357,11 +28395,11 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="I47" s="591" t="s">
+      <c r="I47" s="610" t="s">
         <v>968</v>
       </c>
-      <c r="J47" s="591"/>
-      <c r="K47" s="591"/>
+      <c r="J47" s="610"/>
+      <c r="K47" s="610"/>
       <c r="L47"/>
       <c r="M47" s="380" t="s">
         <v>969</v>
@@ -29348,15 +29386,6 @@
   </sheetData>
   <sheetProtection password="93C0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
@@ -29373,6 +29402,15 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:H8 H9:H11 H13:H18 H20 H4">
     <cfRule type="containsText" dxfId="58" priority="187" operator="containsText" text="Le % de Chiffre d'Affaires Électricien indiqué est inférieur à 90%">
@@ -39926,20 +39964,20 @@
       <c r="B4" s="435" t="s">
         <v>701</v>
       </c>
-      <c r="C4" s="620" t="s">
+      <c r="C4" s="622" t="s">
         <v>702</v>
       </c>
-      <c r="D4" s="621"/>
+      <c r="D4" s="623"/>
       <c r="E4" s="436"/>
-      <c r="H4" s="622" t="s">
+      <c r="H4" s="624" t="s">
         <v>703</v>
       </c>
-      <c r="I4" s="623"/>
-      <c r="J4" s="624"/>
-      <c r="M4" s="625" t="s">
+      <c r="I4" s="625"/>
+      <c r="J4" s="626"/>
+      <c r="M4" s="627" t="s">
         <v>704</v>
       </c>
-      <c r="N4" s="626"/>
+      <c r="N4" s="628"/>
     </row>
     <row r="5" spans="1:14" ht="28.8">
       <c r="A5" s="437"/>
@@ -39960,8 +39998,8 @@
       <c r="J5" s="443" t="s">
         <v>709</v>
       </c>
-      <c r="M5" s="627"/>
-      <c r="N5" s="628"/>
+      <c r="M5" s="629"/>
+      <c r="N5" s="630"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="444" t="s">
@@ -39970,24 +40008,24 @@
       <c r="B6" s="445" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="631" t="s">
+      <c r="C6" s="633" t="s">
         <v>712</v>
       </c>
-      <c r="D6" s="632"/>
+      <c r="D6" s="634"/>
       <c r="E6" s="446" t="s">
         <v>713</v>
       </c>
       <c r="H6" s="447" t="s">
         <v>714</v>
       </c>
-      <c r="I6" s="633" t="s">
+      <c r="I6" s="635" t="s">
         <v>715</v>
       </c>
       <c r="J6" s="447">
         <v>0</v>
       </c>
-      <c r="M6" s="627"/>
-      <c r="N6" s="628"/>
+      <c r="M6" s="629"/>
+      <c r="N6" s="630"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="448" t="s">
@@ -40009,12 +40047,12 @@
       <c r="H7" s="452" t="s">
         <v>718</v>
       </c>
-      <c r="I7" s="634"/>
+      <c r="I7" s="636"/>
       <c r="J7" s="452">
         <v>0.2</v>
       </c>
-      <c r="M7" s="627"/>
-      <c r="N7" s="628"/>
+      <c r="M7" s="629"/>
+      <c r="N7" s="630"/>
     </row>
     <row r="8" spans="1:14" ht="24" customHeight="1">
       <c r="A8" s="453" t="s">
@@ -40036,14 +40074,14 @@
       <c r="H8" s="457" t="s">
         <v>720</v>
       </c>
-      <c r="I8" s="635" t="s">
+      <c r="I8" s="637" t="s">
         <v>721</v>
       </c>
       <c r="J8" s="457">
         <v>0.35</v>
       </c>
-      <c r="M8" s="627"/>
-      <c r="N8" s="628"/>
+      <c r="M8" s="629"/>
+      <c r="N8" s="630"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1">
       <c r="A9" s="453" t="s">
@@ -40065,12 +40103,12 @@
       <c r="H9" s="452" t="s">
         <v>723</v>
       </c>
-      <c r="I9" s="634"/>
+      <c r="I9" s="636"/>
       <c r="J9" s="452">
         <v>0.5</v>
       </c>
-      <c r="M9" s="629"/>
-      <c r="N9" s="630"/>
+      <c r="M9" s="631"/>
+      <c r="N9" s="632"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="458" t="s">
@@ -40169,13 +40207,13 @@
       <c r="E15" s="475"/>
       <c r="F15" s="476"/>
       <c r="G15" s="477"/>
-      <c r="H15" s="636"/>
-      <c r="I15" s="636"/>
-      <c r="J15" s="636"/>
-      <c r="K15" s="636"/>
-      <c r="L15" s="636"/>
-      <c r="M15" s="636"/>
-      <c r="N15" s="637"/>
+      <c r="H15" s="638"/>
+      <c r="I15" s="638"/>
+      <c r="J15" s="638"/>
+      <c r="K15" s="638"/>
+      <c r="L15" s="638"/>
+      <c r="M15" s="638"/>
+      <c r="N15" s="639"/>
     </row>
     <row r="16" spans="1:14" s="478" customFormat="1" outlineLevel="1">
       <c r="B16" s="479"/>
@@ -40234,10 +40272,10 @@
       <c r="E19" s="492">
         <v>4</v>
       </c>
-      <c r="F19" s="616" t="s">
+      <c r="F19" s="618" t="s">
         <v>733</v>
       </c>
-      <c r="G19" s="617"/>
+      <c r="G19" s="619"/>
       <c r="H19" s="490">
         <v>1</v>
       </c>
@@ -40250,10 +40288,10 @@
       <c r="K19" s="492">
         <v>4</v>
       </c>
-      <c r="M19" s="618" t="s">
+      <c r="M19" s="620" t="s">
         <v>733</v>
       </c>
-      <c r="N19" s="619"/>
+      <c r="N19" s="621"/>
     </row>
     <row r="20" spans="1:14" ht="31.5" customHeight="1">
       <c r="B20" s="493" t="str">
